--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_NOx.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>820.0330304639479</v>
+        <v>256.4503791191331</v>
       </c>
       <c r="C2">
-        <v>0.4747431913053647</v>
+        <v>0.1484672773797989</v>
       </c>
       <c r="D2">
-        <v>261.4781533621856</v>
+        <v>81.77252509348948</v>
       </c>
       <c r="E2">
-        <v>40.1540390441584</v>
+        <v>12.55744360713483</v>
       </c>
       <c r="F2">
-        <v>300.2602958417629</v>
+        <v>93.90093306299876</v>
       </c>
       <c r="G2">
-        <v>261.2871540740658</v>
+        <v>81.71279354850267</v>
       </c>
       <c r="H2">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I2">
-        <v>1712.424032580506</v>
+        <v>535.5293946141753</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>810.7144732995848</v>
+        <v>253.5361702655066</v>
       </c>
       <c r="C3">
-        <v>0.5044146407619501</v>
+        <v>0.1577464822160363</v>
       </c>
       <c r="D3">
-        <v>298.8321752710695</v>
+        <v>93.45431439255938</v>
       </c>
       <c r="E3">
-        <v>38.85874746208877</v>
+        <v>12.15236478109822</v>
       </c>
       <c r="F3">
-        <v>302.8599520828171</v>
+        <v>94.71392815445328</v>
       </c>
       <c r="G3">
-        <v>293.6113380832283</v>
+        <v>91.8215927503792</v>
       </c>
       <c r="H3">
-        <v>30.42700581502564</v>
+        <v>9.51549131174473</v>
       </c>
       <c r="I3">
-        <v>1775.808106654576</v>
+        <v>555.3516081379574</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>916.4800971151051</v>
+        <v>286.6124407541675</v>
       </c>
       <c r="C4">
-        <v>0.5143051239141453</v>
+        <v>0.1608395504947821</v>
       </c>
       <c r="D4">
-        <v>324.9799906072881</v>
+        <v>101.6315669019083</v>
       </c>
       <c r="E4">
-        <v>45.3352053724369</v>
+        <v>14.17775891128125</v>
       </c>
       <c r="F4">
-        <v>357.4527331449558</v>
+        <v>111.7868250749985</v>
       </c>
       <c r="G4">
-        <v>223.5756060633758</v>
+        <v>69.91919447964655</v>
       </c>
       <c r="H4">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I4">
-        <v>1885.241829546534</v>
+        <v>589.5750097345773</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>989.1648429971367</v>
+        <v>309.3432698124541</v>
       </c>
       <c r="C5">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D5">
-        <v>332.4507949890646</v>
+        <v>103.9679247617223</v>
       </c>
       <c r="E5">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F5">
-        <v>310.6589208059797</v>
+        <v>97.1529134288169</v>
       </c>
       <c r="G5">
-        <v>150.8461920427595</v>
+        <v>47.17439627542419</v>
       </c>
       <c r="H5">
-        <v>11.83272448362108</v>
+        <v>3.700468843456283</v>
       </c>
       <c r="I5">
-        <v>1843.20564979916</v>
+        <v>576.4289609384269</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1201.162018486396</v>
+        <v>375.6415212324572</v>
       </c>
       <c r="C6">
-        <v>0.48463367445756</v>
+        <v>0.1515603456585448</v>
       </c>
       <c r="D6">
-        <v>235.3303380259671</v>
+        <v>73.59527258414056</v>
       </c>
       <c r="E6">
-        <v>89.3751191628042</v>
+        <v>27.9504389965259</v>
       </c>
       <c r="F6">
-        <v>222.2706086101362</v>
+        <v>69.5110803193627</v>
       </c>
       <c r="G6">
-        <v>83.50414202367047</v>
+        <v>26.11439793818124</v>
       </c>
       <c r="H6">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I6">
-        <v>1867.625033434295</v>
+        <v>584.065677946695</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1199.298307053523</v>
+        <v>375.0586794617322</v>
       </c>
       <c r="C7">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D7">
-        <v>168.0930985899765</v>
+        <v>52.56805184581462</v>
       </c>
       <c r="E7">
-        <v>98.44216023729156</v>
+        <v>30.78599077878216</v>
       </c>
       <c r="F7">
-        <v>127.3831558116569</v>
+        <v>39.83675948127221</v>
       </c>
       <c r="G7">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H7">
-        <v>20.28467054335043</v>
+        <v>6.343660874496489</v>
       </c>
       <c r="I7">
-        <v>1654.173665292361</v>
+        <v>517.3126542879696</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>837.7382890762373</v>
+        <v>261.9873759410235</v>
       </c>
       <c r="C8">
-        <v>0.2769335282614628</v>
+        <v>0.08660591180488267</v>
       </c>
       <c r="D8">
-        <v>145.6806854446462</v>
+        <v>45.5589782663727</v>
       </c>
       <c r="E8">
-        <v>63.46928752141165</v>
+        <v>19.84886247579376</v>
       </c>
       <c r="F8">
-        <v>97.48710903953338</v>
+        <v>30.48731592954505</v>
       </c>
       <c r="G8">
-        <v>48.48627601374413</v>
+        <v>15.16319880281492</v>
       </c>
       <c r="H8">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I8">
-        <v>1194.82896983578</v>
+        <v>373.6609757335628</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>683.9820958642472</v>
+        <v>213.902929856186</v>
       </c>
       <c r="C9">
-        <v>0.2472620788048775</v>
+        <v>0.07732670696864524</v>
       </c>
       <c r="D9">
-        <v>104.5912613448743</v>
+        <v>32.70901003739579</v>
       </c>
       <c r="E9">
-        <v>94.55628549108272</v>
+        <v>29.57075430067233</v>
       </c>
       <c r="F9">
-        <v>55.89260918266583</v>
+        <v>17.47939446627249</v>
       </c>
       <c r="G9">
-        <v>26.93682000763563</v>
+        <v>8.423999334897175</v>
       </c>
       <c r="H9">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I9">
-        <v>971.2775016051481</v>
+        <v>303.7493299210166</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>505.9976540249127</v>
+        <v>158.2415407519196</v>
       </c>
       <c r="C10">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D10">
-        <v>82.17884819954402</v>
+        <v>25.69993645795382</v>
       </c>
       <c r="E10">
-        <v>62.17399593934202</v>
+        <v>19.44378364975715</v>
       </c>
       <c r="F10">
-        <v>50.69329670055736</v>
+        <v>15.85340428336343</v>
       </c>
       <c r="G10">
-        <v>26.93682000763563</v>
+        <v>8.423999334897175</v>
       </c>
       <c r="H10">
-        <v>6.761556847783477</v>
+        <v>2.114553624832162</v>
       </c>
       <c r="I10">
-        <v>734.9202004165147</v>
+        <v>229.8328933317408</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>388.1179058957205</v>
+        <v>121.3767987535443</v>
       </c>
       <c r="C11">
-        <v>0.2868240114136579</v>
+        <v>0.08969898008362852</v>
       </c>
       <c r="D11">
-        <v>82.17884819954402</v>
+        <v>25.69993645795382</v>
       </c>
       <c r="E11">
-        <v>28.49641480553177</v>
+        <v>8.91173417280536</v>
       </c>
       <c r="F11">
-        <v>51.99312482108448</v>
+        <v>16.25990182909069</v>
       </c>
       <c r="G11">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H11">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I11">
-        <v>596.5495153805855</v>
+        <v>186.5599844144476</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>239.0209912659118</v>
+        <v>74.74945709552007</v>
       </c>
       <c r="C12">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D12">
-        <v>18.67701095444184</v>
+        <v>5.840894649534961</v>
       </c>
       <c r="E12">
-        <v>10.362332656557</v>
+        <v>3.240630608292857</v>
       </c>
       <c r="F12">
-        <v>31.19587489265068</v>
+        <v>9.755941097454413</v>
       </c>
       <c r="G12">
-        <v>43.09891201221701</v>
+        <v>13.47839893583547</v>
       </c>
       <c r="I12">
-        <v>342.6221648268876</v>
+        <v>107.1488352301639</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>149.0969146298087</v>
+        <v>46.62734165802421</v>
       </c>
       <c r="C13">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D13">
-        <v>14.94160876355347</v>
+        <v>4.672715719627968</v>
       </c>
       <c r="E13">
-        <v>5.181166328278501</v>
+        <v>1.620315304146429</v>
       </c>
       <c r="F13">
-        <v>41.59449985686758</v>
+        <v>13.00792146327255</v>
       </c>
       <c r="G13">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H13">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I13">
-        <v>253.23619474593</v>
+        <v>79.19500280682358</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>93.65149950184851</v>
+        <v>29.28779897894645</v>
       </c>
       <c r="C14">
-        <v>0.2670430451092678</v>
+        <v>0.08351284352613687</v>
       </c>
       <c r="D14">
-        <v>14.94160876355347</v>
+        <v>4.672715719627968</v>
       </c>
       <c r="E14">
-        <v>3.885874746208876</v>
+        <v>1.215236478109822</v>
       </c>
       <c r="F14">
-        <v>35.09535925423202</v>
+        <v>10.97543373463622</v>
       </c>
       <c r="G14">
-        <v>86.19782402443403</v>
+        <v>26.95679787167095</v>
       </c>
       <c r="H14">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I14">
-        <v>235.729598547332</v>
+        <v>73.72013403272558</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>69.42325087450465</v>
+        <v>21.71085595951753</v>
       </c>
       <c r="C15">
-        <v>0.1681382135873167</v>
+        <v>0.05258216073867877</v>
       </c>
       <c r="D15">
-        <v>11.2062065726651</v>
+        <v>3.504536789720976</v>
       </c>
       <c r="F15">
-        <v>23.39690616948803</v>
+        <v>7.316955823090812</v>
       </c>
       <c r="G15">
-        <v>67.34205001908909</v>
+        <v>21.05999833724293</v>
       </c>
       <c r="H15">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I15">
-        <v>174.9173302732259</v>
+        <v>54.70220588272702</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>73.15067374024989</v>
+        <v>22.87653950096811</v>
       </c>
       <c r="C16">
-        <v>0.0890143483697559</v>
+        <v>0.02783761450871229</v>
       </c>
       <c r="D16">
-        <v>37.35402190888369</v>
+        <v>11.68178929906992</v>
       </c>
       <c r="E16">
-        <v>6.47645791034813</v>
+        <v>2.025394130183036</v>
       </c>
       <c r="F16">
-        <v>27.29639053106935</v>
+        <v>8.536448460272618</v>
       </c>
       <c r="G16">
-        <v>78.11677802214336</v>
+        <v>24.42959807120181</v>
       </c>
       <c r="H16">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I16">
-        <v>224.17372567301</v>
+        <v>70.10624548241225</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>167.2681011003165</v>
+        <v>52.31004892259592</v>
       </c>
       <c r="C17">
-        <v>0.0890143483697559</v>
+        <v>0.02783761450871229</v>
       </c>
       <c r="D17">
-        <v>37.35402190888369</v>
+        <v>11.68178929906992</v>
       </c>
       <c r="E17">
-        <v>3.885874746208876</v>
+        <v>1.215236478109822</v>
       </c>
       <c r="F17">
-        <v>49.39346858003025</v>
+        <v>15.44690673763616</v>
       </c>
       <c r="G17">
-        <v>105.0535980297789</v>
+        <v>32.853597406099</v>
       </c>
       <c r="H17">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I17">
-        <v>366.4248571374797</v>
+        <v>114.5926932704356</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>356.9007393951044</v>
+        <v>111.6141990938954</v>
       </c>
       <c r="C18">
-        <v>0.1483572472829265</v>
+        <v>0.04639602418118716</v>
       </c>
       <c r="D18">
-        <v>78.44344600865571</v>
+        <v>24.53175752804684</v>
       </c>
       <c r="E18">
-        <v>44.03991379036726</v>
+        <v>13.77268008524465</v>
       </c>
       <c r="F18">
-        <v>114.3848746063858</v>
+        <v>35.77178402399954</v>
       </c>
       <c r="G18">
-        <v>137.3777820389417</v>
+        <v>42.9623966079756</v>
       </c>
       <c r="H18">
-        <v>10.14233527167521</v>
+        <v>3.171830437248245</v>
       </c>
       <c r="I18">
-        <v>741.437448358413</v>
+        <v>231.8710438005915</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>622.4796185794509</v>
+        <v>194.6691514222511</v>
       </c>
       <c r="C19">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D19">
-        <v>205.4471204988601</v>
+        <v>64.24984114488456</v>
       </c>
       <c r="E19">
-        <v>120.4621171324752</v>
+        <v>37.67233082140449</v>
       </c>
       <c r="F19">
-        <v>210.5721555253922</v>
+        <v>65.8526024078173</v>
       </c>
       <c r="G19">
-        <v>193.9451040549765</v>
+        <v>60.65279521125967</v>
       </c>
       <c r="H19">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I19">
-        <v>1369.988036607353</v>
+        <v>428.438780298715</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1059.985877446295</v>
+        <v>331.4912571000157</v>
       </c>
       <c r="C20">
-        <v>0.197809663043902</v>
+        <v>0.06186136557491621</v>
       </c>
       <c r="D20">
-        <v>254.0073489804089</v>
+        <v>79.43616723367548</v>
       </c>
       <c r="E20">
-        <v>117.871533968336</v>
+        <v>36.86217316933126</v>
       </c>
       <c r="F20">
-        <v>239.1683741769886</v>
+        <v>74.79554841381716</v>
       </c>
       <c r="G20">
-        <v>266.6745180755927</v>
+        <v>83.39759341548208</v>
       </c>
       <c r="H20">
-        <v>33.80778423891738</v>
+        <v>10.57276812416081</v>
       </c>
       <c r="I20">
-        <v>1971.713246549583</v>
+        <v>616.6173688220574</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1117.295004007128</v>
+        <v>349.413641549819</v>
       </c>
       <c r="C21">
-        <v>0.2967144945658531</v>
+        <v>0.09279204836237431</v>
       </c>
       <c r="D21">
-        <v>201.7117183079718</v>
+        <v>63.08166221497757</v>
       </c>
       <c r="E21">
-        <v>81.60336967038641</v>
+        <v>25.51996604030626</v>
       </c>
       <c r="F21">
-        <v>206.6726711638108</v>
+        <v>64.6331097706355</v>
       </c>
       <c r="G21">
-        <v>218.1882420618486</v>
+        <v>68.23439461266707</v>
       </c>
       <c r="H21">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I21">
-        <v>1849.433168672954</v>
+        <v>578.3765039236803</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>898.7748385028148</v>
+        <v>281.0754439322772</v>
       </c>
       <c r="C22">
-        <v>0.4252907755443893</v>
+        <v>0.1330019359860698</v>
       </c>
       <c r="D22">
-        <v>351.1278059435066</v>
+        <v>109.8088194112573</v>
       </c>
       <c r="E22">
-        <v>63.46928752141165</v>
+        <v>19.84886247579376</v>
       </c>
       <c r="F22">
-        <v>347.0541081807389</v>
+        <v>108.5348447091804</v>
       </c>
       <c r="G22">
-        <v>385.1965261091896</v>
+        <v>120.4631904890296</v>
       </c>
       <c r="H22">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I22">
-        <v>2074.784473636285</v>
+        <v>648.8510158590608</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>705.8807052005002</v>
+        <v>220.7513206622083</v>
       </c>
       <c r="C23">
-        <v>0.4252907755443893</v>
+        <v>0.1330019359860698</v>
       </c>
       <c r="D23">
-        <v>283.8905665075159</v>
+        <v>88.78159867293141</v>
       </c>
       <c r="E23">
-        <v>38.85874746208877</v>
+        <v>12.15236478109822</v>
       </c>
       <c r="F23">
-        <v>341.8547956986304</v>
+        <v>106.9088545262713</v>
       </c>
       <c r="G23">
-        <v>374.4217981061354</v>
+        <v>117.0935907550708</v>
       </c>
       <c r="H23">
-        <v>16.90389211945869</v>
+        <v>5.286384062080407</v>
       </c>
       <c r="I23">
-        <v>1762.235795869874</v>
+        <v>551.1071153956466</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>801.8618439934388</v>
+        <v>250.7676718545614</v>
       </c>
       <c r="C24">
-        <v>0.4351812586965844</v>
+        <v>0.1360950042648156</v>
       </c>
       <c r="D24">
-        <v>295.0967730801809</v>
+        <v>92.28613546265242</v>
       </c>
       <c r="E24">
-        <v>59.58341277520279</v>
+        <v>18.63362599768393</v>
       </c>
       <c r="F24">
-        <v>354.8530769039015</v>
+        <v>110.973829983544</v>
       </c>
       <c r="G24">
-        <v>331.3228860939181</v>
+        <v>103.6151918192353</v>
       </c>
       <c r="H24">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I24">
-        <v>1878.651347556202</v>
+        <v>587.5139566523106</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>769.246893918169</v>
+        <v>240.5679408668687</v>
       </c>
       <c r="C25">
-        <v>0.4055098092399991</v>
+        <v>0.1268157994285782</v>
       </c>
       <c r="D25">
-        <v>212.9179248806368</v>
+        <v>66.58619900469854</v>
       </c>
       <c r="E25">
-        <v>56.99282961106354</v>
+        <v>17.82346834561072</v>
       </c>
       <c r="F25">
-        <v>239.1683741769886</v>
+        <v>74.79554841381716</v>
       </c>
       <c r="G25">
-        <v>290.9176560824649</v>
+        <v>90.97919281688952</v>
       </c>
       <c r="H25">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I25">
-        <v>1591.624248233859</v>
+        <v>497.7514645280177</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>773.9061725003506</v>
+        <v>242.0250452936818</v>
       </c>
       <c r="C26">
-        <v>0.3560573934790236</v>
+        <v>0.1113504580348492</v>
       </c>
       <c r="D26">
-        <v>201.7117183079718</v>
+        <v>63.08166221497757</v>
       </c>
       <c r="E26">
-        <v>40.1540390441584</v>
+        <v>12.55744360713483</v>
       </c>
       <c r="F26">
-        <v>304.1597802033442</v>
+        <v>95.12042570018059</v>
       </c>
       <c r="G26">
-        <v>304.3860660862825</v>
+        <v>95.19119248433807</v>
       </c>
       <c r="H26">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I26">
-        <v>1660.17200698645</v>
+        <v>519.1885262887166</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>834.4767940687099</v>
+        <v>260.9674028422543</v>
       </c>
       <c r="C27">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D27">
-        <v>321.2445884163996</v>
+        <v>100.4633879720013</v>
       </c>
       <c r="E27">
-        <v>58.28812119313316</v>
+        <v>18.22854717164732</v>
       </c>
       <c r="F27">
-        <v>293.7611552391272</v>
+        <v>91.86844533436243</v>
       </c>
       <c r="G27">
-        <v>237.0440160671936</v>
+        <v>74.13119414709513</v>
       </c>
       <c r="H27">
-        <v>25.35583817918803</v>
+        <v>7.929576093120609</v>
       </c>
       <c r="I27">
-        <v>1770.556242006687</v>
+        <v>553.7091832233523</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>857.3072591213997</v>
+        <v>268.1072145336393</v>
       </c>
       <c r="C28">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D28">
-        <v>332.4507949890646</v>
+        <v>103.9679247617223</v>
       </c>
       <c r="E28">
-        <v>46.63049695450652</v>
+        <v>14.58283773731786</v>
       </c>
       <c r="F28">
-        <v>287.2620146364916</v>
+        <v>89.83595760572602</v>
       </c>
       <c r="G28">
-        <v>280.1429280794107</v>
+        <v>87.60959308293064</v>
       </c>
       <c r="H28">
-        <v>25.35583817918803</v>
+        <v>7.929576093120609</v>
       </c>
       <c r="I28">
-        <v>1829.485608387236</v>
+        <v>572.1382681359341</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>989.6307708553547</v>
+        <v>309.488980255136</v>
       </c>
       <c r="C29">
-        <v>0.3263859440224383</v>
+        <v>0.1020712531986117</v>
       </c>
       <c r="D29">
-        <v>250.2719467895206</v>
+        <v>78.26798830376852</v>
       </c>
       <c r="E29">
-        <v>63.46928752141165</v>
+        <v>19.84886247579376</v>
       </c>
       <c r="F29">
-        <v>269.0644209491121</v>
+        <v>84.14499196554436</v>
       </c>
       <c r="G29">
-        <v>191.2514220542131</v>
+        <v>59.81039527776994</v>
       </c>
       <c r="H29">
-        <v>32.11739502697151</v>
+        <v>10.04412971795277</v>
       </c>
       <c r="I29">
-        <v>1796.131629140606</v>
+        <v>561.7074192491639</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1182.990832015888</v>
+        <v>369.9588139678856</v>
       </c>
       <c r="C30">
-        <v>0.2769335282614628</v>
+        <v>0.08660591180488267</v>
       </c>
       <c r="D30">
-        <v>257.7427511712974</v>
+        <v>80.60434616358248</v>
       </c>
       <c r="E30">
-        <v>89.3751191628042</v>
+        <v>27.9504389965259</v>
       </c>
       <c r="F30">
-        <v>232.669233574353</v>
+        <v>72.76306068518082</v>
       </c>
       <c r="G30">
-        <v>115.8283260328332</v>
+        <v>36.22319714005786</v>
       </c>
       <c r="H30">
-        <v>20.28467054335043</v>
+        <v>6.343660874496489</v>
       </c>
       <c r="I30">
-        <v>1899.167866028787</v>
+        <v>593.9301237395341</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1236.106607852757</v>
+        <v>386.569804433557</v>
       </c>
       <c r="C31">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D31">
-        <v>212.9179248806368</v>
+        <v>66.58619900469854</v>
       </c>
       <c r="E31">
-        <v>103.6233265655701</v>
+        <v>32.40630608292857</v>
       </c>
       <c r="F31">
-        <v>167.6778275479974</v>
+        <v>52.43818339881749</v>
       </c>
       <c r="G31">
-        <v>53.87364001527126</v>
+        <v>16.84799866979435</v>
       </c>
       <c r="H31">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I31">
-        <v>1777.916381713299</v>
+        <v>556.0109327236893</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>931.3897885780862</v>
+        <v>291.2751749199699</v>
       </c>
       <c r="C32">
-        <v>0.1780286967395118</v>
+        <v>0.05567522901742459</v>
       </c>
       <c r="D32">
-        <v>145.6806854446462</v>
+        <v>45.5589782663727</v>
       </c>
       <c r="E32">
-        <v>72.53632859589905</v>
+        <v>22.68441425805001</v>
       </c>
       <c r="F32">
-        <v>97.48710903953338</v>
+        <v>30.48731592954505</v>
       </c>
       <c r="G32">
-        <v>70.03573201985267</v>
+        <v>21.90239827073266</v>
       </c>
       <c r="H32">
-        <v>8.451946059729345</v>
+        <v>2.643192031040203</v>
       </c>
       <c r="I32">
-        <v>1325.759618434486</v>
+        <v>414.6071489047279</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>724.9837473874444</v>
+        <v>226.7254488121427</v>
       </c>
       <c r="C33">
-        <v>0.3164954608702432</v>
+        <v>0.09897818491986592</v>
       </c>
       <c r="D33">
-        <v>153.151489826423</v>
+        <v>47.89533612618671</v>
       </c>
       <c r="E33">
-        <v>94.55628549108272</v>
+        <v>29.57075430067233</v>
       </c>
       <c r="F33">
-        <v>84.48882783426224</v>
+        <v>26.42234047227238</v>
       </c>
       <c r="G33">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H33">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I33">
-        <v>1102.973243647374</v>
+        <v>344.9347721171638</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>583.341678489126</v>
+        <v>182.4294742370197</v>
       </c>
       <c r="C34">
-        <v>0.2175906293482922</v>
+        <v>0.06804750213240782</v>
       </c>
       <c r="D34">
-        <v>123.2682722993161</v>
+        <v>38.54990468693072</v>
       </c>
       <c r="E34">
-        <v>60.8787043572724</v>
+        <v>19.03870482372054</v>
       </c>
       <c r="F34">
-        <v>48.09364045950314</v>
+        <v>15.04040919190889</v>
       </c>
       <c r="G34">
-        <v>37.71154801068988</v>
+        <v>11.79359906885605</v>
       </c>
       <c r="H34">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I34">
-        <v>856.8922126691475</v>
+        <v>267.9774163229844</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>415.1417216723734</v>
+        <v>129.8280044290612</v>
       </c>
       <c r="C35">
-        <v>0.2967144945658531</v>
+        <v>0.09279204836237431</v>
       </c>
       <c r="D35">
-        <v>93.38505477220917</v>
+        <v>29.20447324767482</v>
       </c>
       <c r="E35">
-        <v>36.26816429794953</v>
+        <v>11.34220712902501</v>
       </c>
       <c r="F35">
-        <v>41.59449985686758</v>
+        <v>13.00792146327255</v>
       </c>
       <c r="G35">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H35">
-        <v>5.071167635837607</v>
+        <v>1.585915218624122</v>
       </c>
       <c r="I35">
-        <v>632.1625527412566</v>
+        <v>197.6973125383658</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>247.8736205720568</v>
+        <v>77.51795550646524</v>
       </c>
       <c r="C36">
-        <v>0.3857288429356089</v>
+        <v>0.1206296628710866</v>
       </c>
       <c r="D36">
-        <v>33.61861971799529</v>
+        <v>10.51361036916293</v>
       </c>
       <c r="E36">
-        <v>22.01995689518363</v>
+        <v>6.886340042622324</v>
       </c>
       <c r="F36">
-        <v>38.99484361581335</v>
+        <v>12.19492637181802</v>
       </c>
       <c r="G36">
-        <v>29.63050200839919</v>
+        <v>9.266399268386891</v>
       </c>
       <c r="H36">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I36">
-        <v>374.2136608643297</v>
+        <v>117.0284996275345</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>198.4852676009327</v>
+        <v>62.07264858224472</v>
       </c>
       <c r="C37">
-        <v>0.2868240114136579</v>
+        <v>0.08969898008362852</v>
       </c>
       <c r="D37">
-        <v>29.88321752710694</v>
+        <v>9.345431439255936</v>
       </c>
       <c r="E37">
-        <v>14.24820740276589</v>
+        <v>4.45586708640268</v>
       </c>
       <c r="F37">
-        <v>36.39518737475911</v>
+        <v>11.38193128036349</v>
       </c>
       <c r="G37">
-        <v>35.01786600992634</v>
+        <v>10.95119913536633</v>
       </c>
       <c r="H37">
-        <v>8.451946059729345</v>
+        <v>2.643192031040203</v>
       </c>
       <c r="I37">
-        <v>322.768515986634</v>
+        <v>100.939968534757</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>104.367840240866</v>
+        <v>32.63913916061696</v>
       </c>
       <c r="C38">
-        <v>0.3362764271746335</v>
+        <v>0.1051643214773575</v>
       </c>
       <c r="D38">
-        <v>22.4124131453302</v>
+        <v>7.009073579441953</v>
       </c>
       <c r="E38">
-        <v>2.590583164139251</v>
+        <v>0.8101576520732143</v>
       </c>
       <c r="F38">
-        <v>33.79553113370491</v>
+        <v>10.56893618890895</v>
       </c>
       <c r="G38">
-        <v>59.26100401679839</v>
+        <v>18.53279853677378</v>
       </c>
       <c r="H38">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I38">
-        <v>224.4540373399593</v>
+        <v>70.19390784550026</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>68.95732301628648</v>
+        <v>21.56514551683619</v>
       </c>
       <c r="C39">
-        <v>0.187919179891707</v>
+        <v>0.05876829729617038</v>
       </c>
       <c r="D39">
-        <v>22.4124131453302</v>
+        <v>7.009073579441953</v>
       </c>
       <c r="E39">
-        <v>2.590583164139251</v>
+        <v>0.8101576520732143</v>
       </c>
       <c r="F39">
-        <v>20.79724992843379</v>
+        <v>6.503960731636276</v>
       </c>
       <c r="G39">
-        <v>40.40523001145348</v>
+        <v>12.63599900234576</v>
       </c>
       <c r="H39">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I39">
-        <v>157.0411076574808</v>
+        <v>49.11174318583761</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>68.95732301628648</v>
+        <v>21.56514551683619</v>
       </c>
       <c r="C40">
-        <v>0.1186857978263412</v>
+        <v>0.03711681934494972</v>
       </c>
       <c r="D40">
-        <v>26.14781533621858</v>
+        <v>8.177252509348948</v>
       </c>
       <c r="E40">
-        <v>7.771749492417753</v>
+        <v>2.430472956219644</v>
       </c>
       <c r="F40">
-        <v>35.09535925423202</v>
+        <v>10.97543373463622</v>
       </c>
       <c r="G40">
-        <v>64.64836801832556</v>
+        <v>20.21759840375322</v>
       </c>
       <c r="H40">
-        <v>1.690389211945869</v>
+        <v>0.5286384062080406</v>
       </c>
       <c r="I40">
-        <v>204.4296901272526</v>
+        <v>63.93165834634721</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>158.8813996523897</v>
+        <v>49.68726095433207</v>
       </c>
       <c r="C41">
-        <v>0.09890483152195102</v>
+        <v>0.0309306827874581</v>
       </c>
       <c r="D41">
-        <v>63.50183724510222</v>
+        <v>19.85904180841887</v>
       </c>
       <c r="E41">
-        <v>7.771749492417753</v>
+        <v>2.430472956219644</v>
       </c>
       <c r="F41">
-        <v>54.59278106213869</v>
+        <v>17.07289692054524</v>
       </c>
       <c r="G41">
-        <v>123.9093720351239</v>
+        <v>38.750396940527</v>
       </c>
       <c r="H41">
-        <v>3.380778423891738</v>
+        <v>1.057276812416081</v>
       </c>
       <c r="I41">
-        <v>412.1368227425859</v>
+        <v>128.8882770752464</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>337.331769349942</v>
+        <v>105.4943605012798</v>
       </c>
       <c r="C42">
-        <v>0.0296714494565853</v>
+        <v>0.009279204836237429</v>
       </c>
       <c r="D42">
-        <v>85.9142503904324</v>
+        <v>26.86811538786082</v>
       </c>
       <c r="E42">
-        <v>51.81166328278504</v>
+        <v>16.20315304146429</v>
       </c>
       <c r="F42">
-        <v>109.1855621242774</v>
+        <v>34.14579384109047</v>
       </c>
       <c r="G42">
-        <v>137.3777820389417</v>
+        <v>42.9623966079756</v>
       </c>
       <c r="H42">
-        <v>6.761556847783477</v>
+        <v>2.114553624832162</v>
       </c>
       <c r="I42">
-        <v>728.4122554836187</v>
+        <v>227.7976522093394</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>624.8092578705415</v>
+        <v>195.3977036356578</v>
       </c>
       <c r="C43">
-        <v>0.1384667641307314</v>
+        <v>0.04330295590244133</v>
       </c>
       <c r="D43">
-        <v>209.1825226897486</v>
+        <v>65.41802007479158</v>
       </c>
       <c r="E43">
-        <v>124.347991878684</v>
+        <v>38.88756729951431</v>
       </c>
       <c r="F43">
-        <v>236.5687179359343</v>
+        <v>73.98255332236262</v>
       </c>
       <c r="G43">
-        <v>191.2514220542131</v>
+        <v>59.81039527776994</v>
       </c>
       <c r="H43">
-        <v>23.66544896724217</v>
+        <v>7.400937686912567</v>
       </c>
       <c r="I43">
-        <v>1409.963828160495</v>
+        <v>440.9404802529114</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1056.724382438769</v>
+        <v>330.4712840012465</v>
       </c>
       <c r="C44">
-        <v>0.1186857978263412</v>
+        <v>0.03711681934494972</v>
       </c>
       <c r="D44">
-        <v>242.8011424077438</v>
+        <v>75.93163044395448</v>
       </c>
       <c r="E44">
-        <v>145.0726571917981</v>
+        <v>45.36882851610002</v>
       </c>
       <c r="F44">
-        <v>252.1666553822596</v>
+        <v>78.86052387108985</v>
       </c>
       <c r="G44">
-        <v>263.9808360748291</v>
+        <v>82.55519348199229</v>
       </c>
       <c r="H44">
-        <v>35.49817345086325</v>
+        <v>11.10140653036885</v>
       </c>
       <c r="I44">
-        <v>1996.362532744089</v>
+        <v>624.3259836640971</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1195.10495632956</v>
+        <v>373.7472854776004</v>
       </c>
       <c r="C45">
-        <v>0.3461669103268285</v>
+        <v>0.1082573897561034</v>
       </c>
       <c r="D45">
-        <v>295.0967730801809</v>
+        <v>92.28613546265242</v>
       </c>
       <c r="E45">
-        <v>103.6233265655701</v>
+        <v>32.40630608292857</v>
       </c>
       <c r="F45">
-        <v>284.6623583954377</v>
+        <v>89.02296251427154</v>
       </c>
       <c r="G45">
-        <v>288.2239740817012</v>
+        <v>90.13679288339979</v>
       </c>
       <c r="H45">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I45">
-        <v>2195.794171965856</v>
+        <v>686.6945927161455</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>957.0158207800839</v>
+        <v>299.2892492674429</v>
       </c>
       <c r="C46">
-        <v>0.4252907755443893</v>
+        <v>0.1330019359860698</v>
       </c>
       <c r="D46">
-        <v>343.6570015617296</v>
+        <v>107.4724615514433</v>
       </c>
       <c r="E46">
-        <v>72.53632859589905</v>
+        <v>22.68441425805001</v>
       </c>
       <c r="F46">
-        <v>344.4544519396846</v>
+        <v>107.7218496177258</v>
       </c>
       <c r="G46">
-        <v>439.0701661244609</v>
+        <v>137.3111891588239</v>
       </c>
       <c r="H46">
-        <v>28.73661660307977</v>
+        <v>8.986852905536688</v>
       </c>
       <c r="I46">
-        <v>2185.895676380482</v>
+        <v>683.5990186950086</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>722.6541080963536</v>
+        <v>225.996896598736</v>
       </c>
       <c r="C47">
-        <v>0.4747431913053647</v>
+        <v>0.1484672773797989</v>
       </c>
       <c r="D47">
-        <v>254.0073489804089</v>
+        <v>79.43616723367548</v>
       </c>
       <c r="E47">
-        <v>47.92578853657616</v>
+        <v>14.98791656335447</v>
       </c>
       <c r="F47">
-        <v>367.8513581091727</v>
+        <v>115.0388054408166</v>
       </c>
       <c r="G47">
-        <v>334.0165680946819</v>
+        <v>104.457591752725</v>
       </c>
       <c r="H47">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I47">
-        <v>1748.904974763795</v>
+        <v>546.9381441473919</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>745.4845731490432</v>
+        <v>233.1367082901211</v>
       </c>
       <c r="C48">
-        <v>0.2868240114136579</v>
+        <v>0.08969898008362852</v>
       </c>
       <c r="D48">
-        <v>276.4197621257391</v>
+        <v>86.44524081311745</v>
       </c>
       <c r="E48">
-        <v>53.10695486485466</v>
+        <v>16.6082318675009</v>
       </c>
       <c r="F48">
-        <v>375.6503268323353</v>
+        <v>117.4777907151803</v>
       </c>
       <c r="G48">
-        <v>479.4753961359144</v>
+        <v>149.9471881611698</v>
       </c>
       <c r="H48">
-        <v>18.59428133140456</v>
+        <v>5.815022468288446</v>
       </c>
       <c r="I48">
-        <v>1949.018118450705</v>
+        <v>609.5198812954616</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>769.246893918169</v>
+        <v>240.5679408668687</v>
       </c>
       <c r="C49">
-        <v>0.4055098092399991</v>
+        <v>0.1268157994285782</v>
       </c>
       <c r="D49">
-        <v>212.9179248806368</v>
+        <v>66.58619900469854</v>
       </c>
       <c r="E49">
-        <v>56.99282961106354</v>
+        <v>17.82346834561072</v>
       </c>
       <c r="F49">
-        <v>239.1683741769886</v>
+        <v>74.79554841381716</v>
       </c>
       <c r="G49">
-        <v>290.9176560824649</v>
+        <v>90.97919281688952</v>
       </c>
       <c r="H49">
-        <v>21.9750597552963</v>
+        <v>6.872299280704527</v>
       </c>
       <c r="I49">
-        <v>1591.624248233859</v>
+        <v>497.7514645280177</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_NOx.xlsx
+++ b/output/경기동로_N_가을_배출량/경기동로_N_가을_배출량_NOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>256.4503791191331</v>
+        <v>437.9612435637247</v>
       </c>
       <c r="C2">
-        <v>0.1484672773797989</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D2">
-        <v>81.77252509348948</v>
+        <v>261.1772207838673</v>
       </c>
       <c r="E2">
-        <v>12.55744360713483</v>
+        <v>40.1540390441584</v>
       </c>
       <c r="F2">
-        <v>93.90093306299876</v>
+        <v>299.6625344093854</v>
       </c>
       <c r="G2">
-        <v>81.71279354850267</v>
+        <v>260.99675467318</v>
       </c>
       <c r="H2">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I2">
-        <v>535.5293946141753</v>
+        <v>1329.163152268701</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>253.5361702655066</v>
+        <v>432.9844112505004</v>
       </c>
       <c r="C3">
-        <v>0.1577464822160363</v>
+        <v>0.5044146407619501</v>
       </c>
       <c r="D3">
-        <v>93.45431439255938</v>
+        <v>298.4882523244198</v>
       </c>
       <c r="E3">
-        <v>12.15236478109822</v>
+        <v>38.85874746208877</v>
       </c>
       <c r="F3">
-        <v>94.71392815445328</v>
+        <v>302.2570152267827</v>
       </c>
       <c r="G3">
-        <v>91.8215927503792</v>
+        <v>293.285012983264</v>
       </c>
       <c r="H3">
-        <v>9.51549131174473</v>
+        <v>30.42700581502564</v>
       </c>
       <c r="I3">
-        <v>555.3516081379574</v>
+        <v>1396.804859702843</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>286.6124407541675</v>
+        <v>489.4714580055945</v>
       </c>
       <c r="C4">
-        <v>0.1608395504947821</v>
+        <v>0.5143051239141453</v>
       </c>
       <c r="D4">
-        <v>101.6315669019083</v>
+        <v>324.6059744028065</v>
       </c>
       <c r="E4">
-        <v>14.17775891128125</v>
+        <v>45.3352053724369</v>
       </c>
       <c r="F4">
-        <v>111.7868250749985</v>
+        <v>356.7411123921256</v>
       </c>
       <c r="G4">
-        <v>69.91919447964655</v>
+        <v>223.3271199780817</v>
       </c>
       <c r="H4">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I4">
-        <v>589.5750097345773</v>
+        <v>1456.899067394418</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>309.3432698124541</v>
+        <v>528.2907500487426</v>
       </c>
       <c r="C5">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D5">
-        <v>103.9679247617223</v>
+        <v>332.068180710917</v>
       </c>
       <c r="E5">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F5">
-        <v>97.1529134288169</v>
+        <v>310.0404576789745</v>
       </c>
       <c r="G5">
-        <v>47.17439627542419</v>
+        <v>150.6785387803925</v>
       </c>
       <c r="H5">
-        <v>3.700468843456283</v>
+        <v>11.83272448362108</v>
       </c>
       <c r="I5">
-        <v>576.4289609384269</v>
+        <v>1381.162826183246</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>375.6415212324572</v>
+        <v>641.5136851745921</v>
       </c>
       <c r="C6">
-        <v>0.1515603456585448</v>
+        <v>0.48463367445756</v>
       </c>
       <c r="D6">
-        <v>73.59527258414056</v>
+        <v>235.0594987054805</v>
       </c>
       <c r="E6">
-        <v>27.9504389965259</v>
+        <v>89.3751191628042</v>
       </c>
       <c r="F6">
-        <v>69.5110803193627</v>
+        <v>221.8281098874673</v>
       </c>
       <c r="G6">
-        <v>26.11439793818124</v>
+        <v>83.41133396771731</v>
       </c>
       <c r="H6">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I6">
-        <v>584.065677946695</v>
+        <v>1307.170554023382</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>375.0586794617322</v>
+        <v>640.5183187119471</v>
       </c>
       <c r="C7">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D7">
-        <v>52.56805184581462</v>
+        <v>167.8996419324861</v>
       </c>
       <c r="E7">
-        <v>30.78599077878216</v>
+        <v>98.44216023729156</v>
       </c>
       <c r="F7">
-        <v>39.83675948127221</v>
+        <v>127.1295600524665</v>
       </c>
       <c r="G7">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H7">
-        <v>6.343660874496489</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I7">
-        <v>517.3126542879696</v>
+        <v>1094.901717410256</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>261.9873759410235</v>
+        <v>447.4172249588506</v>
       </c>
       <c r="C8">
-        <v>0.08660591180488267</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D8">
-        <v>45.5589782663727</v>
+        <v>145.5130230081545</v>
       </c>
       <c r="E8">
-        <v>19.84886247579376</v>
+        <v>63.46928752141165</v>
       </c>
       <c r="F8">
-        <v>30.48731592954505</v>
+        <v>97.2930306523979</v>
       </c>
       <c r="G8">
-        <v>15.16319880281492</v>
+        <v>48.43238746512618</v>
       </c>
       <c r="H8">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I8">
-        <v>373.6609757335628</v>
+        <v>804.0922763461482</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>213.902929856186</v>
+        <v>365.2994917906523</v>
       </c>
       <c r="C9">
-        <v>0.07732670696864524</v>
+        <v>0.2472620788048775</v>
       </c>
       <c r="D9">
-        <v>32.70901003739579</v>
+        <v>104.4708883135469</v>
       </c>
       <c r="E9">
-        <v>29.57075430067233</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F9">
-        <v>17.47939446627249</v>
+        <v>55.78133757404147</v>
       </c>
       <c r="G9">
-        <v>8.423999334897175</v>
+        <v>26.90688192507009</v>
       </c>
       <c r="H9">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I9">
-        <v>303.7493299210166</v>
+        <v>652.3333148090359</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>158.2415407519196</v>
+        <v>270.2419946080709</v>
       </c>
       <c r="C10">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D10">
-        <v>25.69993645795382</v>
+        <v>82.08426938921539</v>
       </c>
       <c r="E10">
-        <v>19.44378364975715</v>
+        <v>62.17399593934202</v>
       </c>
       <c r="F10">
-        <v>15.85340428336343</v>
+        <v>50.59237593924689</v>
       </c>
       <c r="G10">
-        <v>8.423999334897175</v>
+        <v>26.90688192507009</v>
       </c>
       <c r="H10">
-        <v>2.114553624832162</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I10">
-        <v>229.8328933317408</v>
+        <v>498.9391033454683</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,28 +699,28 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>121.3767987535443</v>
+        <v>207.2850658457856</v>
       </c>
       <c r="C11">
-        <v>0.08969898008362852</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D11">
-        <v>25.69993645795382</v>
+        <v>82.08426938921539</v>
       </c>
       <c r="E11">
-        <v>8.91173417280536</v>
+        <v>28.49641480553177</v>
       </c>
       <c r="F11">
-        <v>16.25990182909069</v>
+        <v>51.88961634794552</v>
       </c>
       <c r="G11">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H11">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I11">
-        <v>186.5599844144476</v>
+        <v>415.4736809233347</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -728,25 +728,25 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>74.74945709552007</v>
+        <v>127.6557488341993</v>
       </c>
       <c r="C12">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D12">
-        <v>5.840894649534961</v>
+        <v>18.65551577027624</v>
       </c>
       <c r="E12">
-        <v>3.240630608292857</v>
+        <v>10.362332656557</v>
       </c>
       <c r="F12">
-        <v>9.755941097454413</v>
+        <v>31.13376980876732</v>
       </c>
       <c r="G12">
-        <v>13.47839893583547</v>
+        <v>43.05101108011214</v>
       </c>
       <c r="I12">
-        <v>107.1488352301639</v>
+        <v>231.1254211950212</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>46.62734165802421</v>
+        <v>79.62931701158629</v>
       </c>
       <c r="C13">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D13">
-        <v>4.672715719627968</v>
+        <v>14.92441261622099</v>
       </c>
       <c r="E13">
-        <v>1.620315304146429</v>
+        <v>5.181166328278501</v>
       </c>
       <c r="F13">
-        <v>13.00792146327255</v>
+        <v>41.51169307835642</v>
       </c>
       <c r="G13">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H13">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I13">
-        <v>79.19500280682358</v>
+        <v>183.6236870780157</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,28 +783,28 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>29.28779897894645</v>
+        <v>50.01716474790265</v>
       </c>
       <c r="C14">
-        <v>0.08351284352613687</v>
+        <v>0.2670430451092678</v>
       </c>
       <c r="D14">
-        <v>4.672715719627968</v>
+        <v>14.92441261622099</v>
       </c>
       <c r="E14">
-        <v>1.215236478109822</v>
+        <v>3.885874746208876</v>
       </c>
       <c r="F14">
-        <v>10.97543373463622</v>
+        <v>35.02549103486323</v>
       </c>
       <c r="G14">
-        <v>26.95679787167095</v>
+        <v>86.10202216022428</v>
       </c>
       <c r="H14">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I14">
-        <v>73.72013403272558</v>
+        <v>191.9123975624751</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -812,25 +812,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>21.71085595951753</v>
+        <v>37.0774007335199</v>
       </c>
       <c r="C15">
-        <v>0.05258216073867877</v>
+        <v>0.1681382135873167</v>
       </c>
       <c r="D15">
-        <v>3.504536789720976</v>
+        <v>11.19330946216574</v>
       </c>
       <c r="F15">
-        <v>7.316955823090812</v>
+        <v>23.3503273565755</v>
       </c>
       <c r="G15">
-        <v>21.05999833724293</v>
+        <v>67.26720481267525</v>
       </c>
       <c r="H15">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I15">
-        <v>54.70220588272702</v>
+        <v>142.4371590024155</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,28 +838,28 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>22.87653950096811</v>
+        <v>39.06813365880955</v>
       </c>
       <c r="C16">
-        <v>0.02783761450871229</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D16">
-        <v>11.68178929906992</v>
+        <v>37.31103154055247</v>
       </c>
       <c r="E16">
-        <v>2.025394130183036</v>
+        <v>6.47645791034813</v>
       </c>
       <c r="F16">
-        <v>8.536448460272618</v>
+        <v>27.2420485826714</v>
       </c>
       <c r="G16">
-        <v>24.42959807120181</v>
+        <v>78.02995758270329</v>
       </c>
       <c r="H16">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I16">
-        <v>70.10624548241225</v>
+        <v>189.9070328354005</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -867,28 +867,28 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>52.31004892259592</v>
+        <v>89.33414002237335</v>
       </c>
       <c r="C17">
-        <v>0.02783761450871229</v>
+        <v>0.0890143483697559</v>
       </c>
       <c r="D17">
-        <v>11.68178929906992</v>
+        <v>37.31103154055247</v>
       </c>
       <c r="E17">
-        <v>1.215236478109822</v>
+        <v>3.885874746208876</v>
       </c>
       <c r="F17">
-        <v>15.44690673763616</v>
+        <v>49.29513553054827</v>
       </c>
       <c r="G17">
-        <v>32.853597406099</v>
+        <v>104.9368395077733</v>
       </c>
       <c r="H17">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I17">
-        <v>114.5926932704356</v>
+        <v>288.2328141197178</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -896,28 +896,28 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>111.6141990938954</v>
+        <v>190.6126775964848</v>
       </c>
       <c r="C18">
-        <v>0.04639602418118716</v>
+        <v>0.1483572472829265</v>
       </c>
       <c r="D18">
-        <v>24.53175752804684</v>
+        <v>78.35316623516015</v>
       </c>
       <c r="E18">
-        <v>13.77268008524465</v>
+        <v>44.03991379036726</v>
       </c>
       <c r="F18">
-        <v>35.77178402399954</v>
+        <v>114.1571559654802</v>
       </c>
       <c r="G18">
-        <v>42.9623966079756</v>
+        <v>137.2250978178575</v>
       </c>
       <c r="H18">
-        <v>3.171830437248245</v>
+        <v>10.14233527167521</v>
       </c>
       <c r="I18">
-        <v>231.8710438005915</v>
+        <v>574.6787039243079</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -925,28 +925,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>194.6691514222511</v>
+        <v>332.4523985233729</v>
       </c>
       <c r="C19">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D19">
-        <v>64.24984114488456</v>
+        <v>205.2106734730386</v>
       </c>
       <c r="E19">
-        <v>37.67233082140449</v>
+        <v>120.4621171324752</v>
       </c>
       <c r="F19">
-        <v>65.8526024078173</v>
+        <v>210.1529462091794</v>
       </c>
       <c r="G19">
-        <v>60.65279521125967</v>
+        <v>193.7295498605047</v>
       </c>
       <c r="H19">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I19">
-        <v>428.438780298715</v>
+        <v>1079.089606014769</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -954,28 +954,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>331.4912571000157</v>
+        <v>566.1146756292462</v>
       </c>
       <c r="C20">
-        <v>0.06186136557491621</v>
+        <v>0.197809663043902</v>
       </c>
       <c r="D20">
-        <v>79.43616723367548</v>
+        <v>253.7150144757568</v>
       </c>
       <c r="E20">
-        <v>36.86217316933126</v>
+        <v>117.871533968336</v>
       </c>
       <c r="F20">
-        <v>74.79554841381716</v>
+        <v>238.6922352005494</v>
       </c>
       <c r="G20">
-        <v>83.39759341548208</v>
+        <v>266.3781310581937</v>
       </c>
       <c r="H20">
-        <v>10.57276812416081</v>
+        <v>33.80778423891738</v>
       </c>
       <c r="I20">
-        <v>616.6173688220574</v>
+        <v>1476.777184234043</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -983,28 +983,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>349.413641549819</v>
+        <v>596.7221943555749</v>
       </c>
       <c r="C21">
-        <v>0.09279204836237431</v>
+        <v>0.2967144945658531</v>
       </c>
       <c r="D21">
-        <v>63.08166221497757</v>
+        <v>201.4795703189833</v>
       </c>
       <c r="E21">
-        <v>25.51996604030626</v>
+        <v>81.60336967038641</v>
       </c>
       <c r="F21">
-        <v>64.6331097706355</v>
+        <v>206.2612249830835</v>
       </c>
       <c r="G21">
-        <v>68.23439461266707</v>
+        <v>217.9457435930678</v>
       </c>
       <c r="H21">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I21">
-        <v>578.3765039236803</v>
+        <v>1327.974266382904</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1012,28 +1012,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>281.0754439322772</v>
+        <v>480.0154766104689</v>
       </c>
       <c r="C22">
-        <v>0.1330019359860698</v>
+        <v>0.4252907755443893</v>
       </c>
       <c r="D22">
-        <v>109.8088194112573</v>
+        <v>350.7236964811933</v>
       </c>
       <c r="E22">
-        <v>19.84886247579376</v>
+        <v>63.46928752141165</v>
       </c>
       <c r="F22">
-        <v>108.5348447091804</v>
+        <v>346.3631891225365</v>
       </c>
       <c r="G22">
-        <v>120.4631904890296</v>
+        <v>384.7684115285023</v>
       </c>
       <c r="H22">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I22">
-        <v>648.8510158590608</v>
+        <v>1654.501968642737</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1041,28 +1041,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>220.7513206622083</v>
+        <v>376.9950477267287</v>
       </c>
       <c r="C23">
-        <v>0.1330019359860698</v>
+        <v>0.4252907755443893</v>
       </c>
       <c r="D23">
-        <v>88.78159867293141</v>
+        <v>283.5638397081987</v>
       </c>
       <c r="E23">
-        <v>12.15236478109822</v>
+        <v>38.85874746208877</v>
       </c>
       <c r="F23">
-        <v>106.9088545262713</v>
+        <v>341.1742274877419</v>
       </c>
       <c r="G23">
-        <v>117.0935907550708</v>
+        <v>374.0056587584743</v>
       </c>
       <c r="H23">
-        <v>5.286384062080407</v>
+        <v>16.90389211945869</v>
       </c>
       <c r="I23">
-        <v>551.1071153956466</v>
+        <v>1431.926704038236</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1070,28 +1070,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>250.7676718545614</v>
+        <v>428.2564205529375</v>
       </c>
       <c r="C24">
-        <v>0.1360950042648156</v>
+        <v>0.4351812586965844</v>
       </c>
       <c r="D24">
-        <v>92.28613546265242</v>
+        <v>294.7571491703645</v>
       </c>
       <c r="E24">
-        <v>18.63362599768393</v>
+        <v>59.58341277520279</v>
       </c>
       <c r="F24">
-        <v>110.973829983544</v>
+        <v>354.1466315747281</v>
       </c>
       <c r="G24">
-        <v>103.6151918192353</v>
+        <v>330.9546476783619</v>
       </c>
       <c r="H24">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I24">
-        <v>587.5139566523106</v>
+        <v>1503.631616461155</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1099,28 +1099,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>240.5679408668687</v>
+        <v>410.8375074566532</v>
       </c>
       <c r="C25">
-        <v>0.1268157994285782</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D25">
-        <v>66.58619900469854</v>
+        <v>212.672879781149</v>
       </c>
       <c r="E25">
-        <v>17.82346834561072</v>
+        <v>56.99282961106354</v>
       </c>
       <c r="F25">
-        <v>74.79554841381716</v>
+        <v>238.6922352005494</v>
       </c>
       <c r="G25">
-        <v>90.97919281688952</v>
+        <v>290.5943247907568</v>
       </c>
       <c r="H25">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I25">
-        <v>497.7514645280177</v>
+        <v>1232.170346404708</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>242.0250452936818</v>
+        <v>413.325923613265</v>
       </c>
       <c r="C26">
-        <v>0.1113504580348492</v>
+        <v>0.3560573934790236</v>
       </c>
       <c r="D26">
-        <v>63.08166221497757</v>
+        <v>201.4795703189833</v>
       </c>
       <c r="E26">
-        <v>12.55744360713483</v>
+        <v>40.1540390441584</v>
       </c>
       <c r="F26">
-        <v>95.12042570018059</v>
+        <v>303.5542556354814</v>
       </c>
       <c r="G26">
-        <v>95.19119248433807</v>
+        <v>304.047765753292</v>
       </c>
       <c r="H26">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I26">
-        <v>519.1885262887166</v>
+        <v>1298.415785209522</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>260.9674028422543</v>
+        <v>445.6753336492222</v>
       </c>
       <c r="C27">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D27">
-        <v>100.4633879720013</v>
+        <v>320.8748712487512</v>
       </c>
       <c r="E27">
-        <v>18.22854717164732</v>
+        <v>58.28812119313316</v>
       </c>
       <c r="F27">
-        <v>91.86844533436243</v>
+        <v>293.1763323658923</v>
       </c>
       <c r="G27">
-        <v>74.13119414709513</v>
+        <v>236.7805609406168</v>
       </c>
       <c r="H27">
-        <v>7.929576093120609</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I27">
-        <v>553.7091832233523</v>
+        <v>1380.53678641974</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1186,28 +1186,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>268.1072145336393</v>
+        <v>457.8685728166211</v>
       </c>
       <c r="C28">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D28">
-        <v>103.9679247617223</v>
+        <v>332.068180710917</v>
       </c>
       <c r="E28">
-        <v>14.58283773731786</v>
+        <v>46.63049695450652</v>
       </c>
       <c r="F28">
-        <v>89.83595760572602</v>
+        <v>286.690130322399</v>
       </c>
       <c r="G28">
-        <v>87.60959308293064</v>
+        <v>279.8315720207291</v>
       </c>
       <c r="H28">
-        <v>7.929576093120609</v>
+        <v>25.35583817918803</v>
       </c>
       <c r="I28">
-        <v>572.1382681359341</v>
+        <v>1428.781067431535</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1215,28 +1215,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>309.488980255136</v>
+        <v>528.5395916644037</v>
       </c>
       <c r="C29">
-        <v>0.1020712531986117</v>
+        <v>0.3263859440224383</v>
       </c>
       <c r="D29">
-        <v>78.26798830376852</v>
+        <v>249.9839113217016</v>
       </c>
       <c r="E29">
-        <v>19.84886247579376</v>
+        <v>63.46928752141165</v>
       </c>
       <c r="F29">
-        <v>84.14499196554436</v>
+        <v>268.528764600618</v>
       </c>
       <c r="G29">
-        <v>59.81039527776994</v>
+        <v>191.0388616679976</v>
       </c>
       <c r="H29">
-        <v>10.04412971795277</v>
+        <v>32.11739502697151</v>
       </c>
       <c r="I29">
-        <v>561.7074192491639</v>
+        <v>1334.004197747127</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1244,28 +1244,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>369.9588139678856</v>
+        <v>631.8088621638057</v>
       </c>
       <c r="C30">
-        <v>0.08660591180488267</v>
+        <v>0.2769335282614628</v>
       </c>
       <c r="D30">
-        <v>80.60434616358248</v>
+        <v>257.446117629812</v>
       </c>
       <c r="E30">
-        <v>27.9504389965259</v>
+        <v>89.3751191628042</v>
       </c>
       <c r="F30">
-        <v>72.76306068518082</v>
+        <v>232.2060331570562</v>
       </c>
       <c r="G30">
-        <v>36.22319714005786</v>
+        <v>115.6995922778014</v>
       </c>
       <c r="H30">
-        <v>6.343660874496489</v>
+        <v>20.28467054335043</v>
       </c>
       <c r="I30">
-        <v>593.9301237395341</v>
+        <v>1347.097328462891</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1273,28 +1273,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>386.569804433557</v>
+        <v>660.1768063491828</v>
       </c>
       <c r="C31">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D31">
-        <v>66.58619900469854</v>
+        <v>212.672879781149</v>
       </c>
       <c r="E31">
-        <v>32.40630608292857</v>
+        <v>103.6233265655701</v>
       </c>
       <c r="F31">
-        <v>52.43818339881749</v>
+        <v>167.3440127221243</v>
       </c>
       <c r="G31">
-        <v>16.84799866979435</v>
+        <v>53.81376385014018</v>
       </c>
       <c r="H31">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I31">
-        <v>556.0109327236893</v>
+        <v>1201.347844119233</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1302,28 +1302,28 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>291.2751749199699</v>
+        <v>497.4343897067533</v>
       </c>
       <c r="C32">
-        <v>0.05567522901742459</v>
+        <v>0.1780286967395118</v>
       </c>
       <c r="D32">
-        <v>45.5589782663727</v>
+        <v>145.5130230081545</v>
       </c>
       <c r="E32">
-        <v>22.68441425805001</v>
+        <v>72.53632859589905</v>
       </c>
       <c r="F32">
-        <v>30.48731592954505</v>
+        <v>97.2930306523979</v>
       </c>
       <c r="G32">
-        <v>21.90239827073266</v>
+        <v>69.95789300518227</v>
       </c>
       <c r="H32">
-        <v>2.643192031040203</v>
+        <v>8.451946059729345</v>
       </c>
       <c r="I32">
-        <v>414.6071489047279</v>
+        <v>891.3646397248559</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1331,28 +1331,28 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>226.7254488121427</v>
+        <v>387.1975539688385</v>
       </c>
       <c r="C33">
-        <v>0.09897818491986592</v>
+        <v>0.3164954608702432</v>
       </c>
       <c r="D33">
-        <v>47.89533612618671</v>
+        <v>152.9752293162651</v>
       </c>
       <c r="E33">
-        <v>29.57075430067233</v>
+        <v>94.55628549108272</v>
       </c>
       <c r="F33">
-        <v>26.42234047227238</v>
+        <v>84.32062656541152</v>
       </c>
       <c r="G33">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H33">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I33">
-        <v>344.9347721171638</v>
+        <v>764.7976813259108</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1360,28 +1360,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>182.4294742370197</v>
+        <v>311.5497028078315</v>
       </c>
       <c r="C34">
-        <v>0.06804750213240782</v>
+        <v>0.2175906293482922</v>
       </c>
       <c r="D34">
-        <v>38.54990468693072</v>
+        <v>123.1264040838231</v>
       </c>
       <c r="E34">
-        <v>19.03870482372054</v>
+        <v>60.8787043572724</v>
       </c>
       <c r="F34">
-        <v>15.04040919190889</v>
+        <v>47.99789512184962</v>
       </c>
       <c r="G34">
-        <v>11.79359906885605</v>
+        <v>37.66963469509812</v>
       </c>
       <c r="H34">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I34">
-        <v>267.9774163229844</v>
+        <v>584.8207101191147</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1389,28 +1389,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>129.8280044290612</v>
+        <v>221.7178795541355</v>
       </c>
       <c r="C35">
-        <v>0.09279204836237431</v>
+        <v>0.2967144945658531</v>
       </c>
       <c r="D35">
-        <v>29.20447324767482</v>
+        <v>93.27757885138121</v>
       </c>
       <c r="E35">
-        <v>11.34220712902501</v>
+        <v>36.26816429794953</v>
       </c>
       <c r="F35">
-        <v>13.00792146327255</v>
+        <v>41.51169307835642</v>
       </c>
       <c r="G35">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H35">
-        <v>1.585915218624122</v>
+        <v>5.071167635837607</v>
       </c>
       <c r="I35">
-        <v>197.6973125383658</v>
+        <v>438.5035207998313</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1418,28 +1418,28 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>77.51795550646524</v>
+        <v>132.3837395317622</v>
       </c>
       <c r="C36">
-        <v>0.1206296628710866</v>
+        <v>0.3857288429356089</v>
       </c>
       <c r="D36">
-        <v>10.51361036916293</v>
+        <v>33.57992838649722</v>
       </c>
       <c r="E36">
-        <v>6.886340042622324</v>
+        <v>22.01995689518363</v>
       </c>
       <c r="F36">
-        <v>12.19492637181802</v>
+        <v>38.91721226095914</v>
       </c>
       <c r="G36">
-        <v>9.266399268386891</v>
+        <v>29.5975701175771</v>
       </c>
       <c r="H36">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I36">
-        <v>117.0284996275345</v>
+        <v>258.5745252468607</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1447,28 +1447,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>62.07264858224472</v>
+        <v>106.0065282716742</v>
       </c>
       <c r="C37">
-        <v>0.08969898008362852</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D37">
-        <v>9.345431439255936</v>
+        <v>29.84882523244197</v>
       </c>
       <c r="E37">
-        <v>4.45586708640268</v>
+        <v>14.24820740276589</v>
       </c>
       <c r="F37">
-        <v>11.38193128036349</v>
+        <v>36.32273144356188</v>
       </c>
       <c r="G37">
-        <v>10.95119913536633</v>
+        <v>34.97894650259114</v>
       </c>
       <c r="H37">
-        <v>2.643192031040203</v>
+        <v>8.451946059729345</v>
       </c>
       <c r="I37">
-        <v>100.939968534757</v>
+        <v>230.1440089241781</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1476,28 +1476,28 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>32.63913916061696</v>
+        <v>55.74052190811043</v>
       </c>
       <c r="C38">
-        <v>0.1051643214773575</v>
+        <v>0.3362764271746335</v>
       </c>
       <c r="D38">
-        <v>7.009073579441953</v>
+        <v>22.38661892433147</v>
       </c>
       <c r="E38">
-        <v>0.8101576520732143</v>
+        <v>2.590583164139251</v>
       </c>
       <c r="F38">
-        <v>10.56893618890895</v>
+        <v>33.72825062616459</v>
       </c>
       <c r="G38">
-        <v>18.53279853677378</v>
+        <v>59.19514023515419</v>
       </c>
       <c r="H38">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I38">
-        <v>70.19390784550026</v>
+        <v>175.6677804970204</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1505,28 +1505,28 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>21.56514551683619</v>
+        <v>36.8285591178587</v>
       </c>
       <c r="C39">
-        <v>0.05876829729617038</v>
+        <v>0.187919179891707</v>
       </c>
       <c r="D39">
-        <v>7.009073579441953</v>
+        <v>22.38661892433147</v>
       </c>
       <c r="E39">
-        <v>0.8101576520732143</v>
+        <v>2.590583164139251</v>
       </c>
       <c r="F39">
-        <v>6.503960731636276</v>
+        <v>20.75584653917821</v>
       </c>
       <c r="G39">
-        <v>12.63599900234576</v>
+        <v>40.36032288760515</v>
       </c>
       <c r="H39">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I39">
-        <v>49.11174318583761</v>
+        <v>124.8002390249504</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1534,28 +1534,28 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>21.56514551683619</v>
+        <v>36.8285591178587</v>
       </c>
       <c r="C40">
-        <v>0.03711681934494972</v>
+        <v>0.1186857978263412</v>
       </c>
       <c r="D40">
-        <v>8.177252509348948</v>
+        <v>26.11772207838673</v>
       </c>
       <c r="E40">
-        <v>2.430472956219644</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F40">
-        <v>10.97543373463622</v>
+        <v>35.02549103486323</v>
       </c>
       <c r="G40">
-        <v>20.21759840375322</v>
+        <v>64.57651662016822</v>
       </c>
       <c r="H40">
-        <v>0.5286384062080406</v>
+        <v>1.690389211945869</v>
       </c>
       <c r="I40">
-        <v>63.93165834634721</v>
+        <v>172.1291133534669</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1563,28 +1563,28 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>49.68726095433207</v>
+        <v>84.85499094047167</v>
       </c>
       <c r="C41">
-        <v>0.0309306827874581</v>
+        <v>0.09890483152195102</v>
       </c>
       <c r="D41">
-        <v>19.85904180841887</v>
+        <v>63.42875361893919</v>
       </c>
       <c r="E41">
-        <v>2.430472956219644</v>
+        <v>7.771749492417753</v>
       </c>
       <c r="F41">
-        <v>17.07289692054524</v>
+        <v>54.4840971653428</v>
       </c>
       <c r="G41">
-        <v>38.750396940527</v>
+        <v>123.7716568553224</v>
       </c>
       <c r="H41">
-        <v>1.057276812416081</v>
+        <v>3.380778423891738</v>
       </c>
       <c r="I41">
-        <v>128.8882770752464</v>
+        <v>337.7909313279075</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1592,28 +1592,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>105.4943605012798</v>
+        <v>180.161329738714</v>
       </c>
       <c r="C42">
-        <v>0.009279204836237429</v>
+        <v>0.0296714494565853</v>
       </c>
       <c r="D42">
-        <v>26.86811538786082</v>
+        <v>85.81537254327068</v>
       </c>
       <c r="E42">
-        <v>16.20315304146429</v>
+        <v>51.81166328278504</v>
       </c>
       <c r="F42">
-        <v>34.14579384109047</v>
+        <v>108.9681943306856</v>
       </c>
       <c r="G42">
-        <v>42.9623966079756</v>
+        <v>137.2250978178575</v>
       </c>
       <c r="H42">
-        <v>2.114553624832162</v>
+        <v>6.761556847783477</v>
       </c>
       <c r="I42">
-        <v>227.7976522093394</v>
+        <v>570.7728860105528</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1621,28 +1621,28 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>195.3977036356578</v>
+        <v>333.6966066016789</v>
       </c>
       <c r="C43">
-        <v>0.04330295590244133</v>
+        <v>0.1384667641307314</v>
       </c>
       <c r="D43">
-        <v>65.41802007479158</v>
+        <v>208.9417766270938</v>
       </c>
       <c r="E43">
-        <v>38.88756729951431</v>
+        <v>124.347991878684</v>
       </c>
       <c r="F43">
-        <v>73.98255332236262</v>
+        <v>236.0977543831522</v>
       </c>
       <c r="G43">
-        <v>59.81039527776994</v>
+        <v>191.0388616679976</v>
       </c>
       <c r="H43">
-        <v>7.400937686912567</v>
+        <v>23.66544896724217</v>
       </c>
       <c r="I43">
-        <v>440.9404802529114</v>
+        <v>1117.926906889979</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1650,28 +1650,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>330.4712840012465</v>
+        <v>564.3727843196175</v>
       </c>
       <c r="C44">
-        <v>0.03711681934494972</v>
+        <v>0.1186857978263412</v>
       </c>
       <c r="D44">
-        <v>75.93163044395448</v>
+        <v>242.5217050135911</v>
       </c>
       <c r="E44">
-        <v>45.36882851610002</v>
+        <v>145.0726571917981</v>
       </c>
       <c r="F44">
-        <v>78.86052387108985</v>
+        <v>251.6646392875359</v>
       </c>
       <c r="G44">
-        <v>82.55519348199229</v>
+        <v>263.6874428656869</v>
       </c>
       <c r="H44">
-        <v>11.10140653036885</v>
+        <v>35.49817345086325</v>
       </c>
       <c r="I44">
-        <v>624.3259836640971</v>
+        <v>1502.936087926919</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1679,28 +1679,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>373.7472854776004</v>
+        <v>638.2787441709969</v>
       </c>
       <c r="C45">
-        <v>0.1082573897561034</v>
+        <v>0.3461669103268285</v>
       </c>
       <c r="D45">
-        <v>92.28613546265242</v>
+        <v>294.7571491703645</v>
       </c>
       <c r="E45">
-        <v>32.40630608292857</v>
+        <v>103.6233265655701</v>
       </c>
       <c r="F45">
-        <v>89.02296251427154</v>
+        <v>284.0956495050019</v>
       </c>
       <c r="G45">
-        <v>90.13679288339979</v>
+        <v>287.9036365982499</v>
       </c>
       <c r="H45">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I45">
-        <v>686.6945927161455</v>
+        <v>1637.74128952359</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1708,28 +1708,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>299.2892492674429</v>
+        <v>511.1206785681195</v>
       </c>
       <c r="C46">
-        <v>0.1330019359860698</v>
+        <v>0.4252907755443893</v>
       </c>
       <c r="D46">
-        <v>107.4724615514433</v>
+        <v>343.2614901730827</v>
       </c>
       <c r="E46">
-        <v>22.68441425805001</v>
+        <v>72.53632859589905</v>
       </c>
       <c r="F46">
-        <v>107.7218496177258</v>
+        <v>343.768708305139</v>
       </c>
       <c r="G46">
-        <v>137.3111891588239</v>
+        <v>438.5821753786425</v>
       </c>
       <c r="H46">
-        <v>8.986852905536688</v>
+        <v>28.73661660307977</v>
       </c>
       <c r="I46">
-        <v>683.5990186950086</v>
+        <v>1738.431288399507</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1737,28 +1737,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>225.996896598736</v>
+        <v>385.9533458905323</v>
       </c>
       <c r="C47">
-        <v>0.1484672773797989</v>
+        <v>0.4747431913053647</v>
       </c>
       <c r="D47">
-        <v>79.43616723367548</v>
+        <v>253.7150144757568</v>
       </c>
       <c r="E47">
-        <v>14.98791656335447</v>
+        <v>47.92578853657616</v>
       </c>
       <c r="F47">
-        <v>115.0388054408166</v>
+        <v>367.1190356617146</v>
       </c>
       <c r="G47">
-        <v>104.457591752725</v>
+        <v>333.6453358708692</v>
       </c>
       <c r="H47">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I47">
-        <v>546.9381441473919</v>
+        <v>1410.808323382051</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1766,28 +1766,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>233.1367082901211</v>
+        <v>398.1465850579315</v>
       </c>
       <c r="C48">
-        <v>0.08969898008362852</v>
+        <v>0.2868240114136579</v>
       </c>
       <c r="D48">
-        <v>86.44524081311745</v>
+        <v>276.1016334000884</v>
       </c>
       <c r="E48">
-        <v>16.6082318675009</v>
+        <v>53.10695486485466</v>
       </c>
       <c r="F48">
-        <v>117.4777907151803</v>
+        <v>374.9024781139065</v>
       </c>
       <c r="G48">
-        <v>149.9471881611698</v>
+        <v>478.9424982662476</v>
       </c>
       <c r="H48">
-        <v>5.815022468288446</v>
+        <v>18.59428133140456</v>
       </c>
       <c r="I48">
-        <v>609.5198812954616</v>
+        <v>1600.081255045847</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1795,28 +1795,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>240.5679408668687</v>
+        <v>410.8375074566532</v>
       </c>
       <c r="C49">
-        <v>0.1268157994285782</v>
+        <v>0.4055098092399991</v>
       </c>
       <c r="D49">
-        <v>66.58619900469854</v>
+        <v>212.672879781149</v>
       </c>
       <c r="E49">
-        <v>17.82346834561072</v>
+        <v>56.99282961106354</v>
       </c>
       <c r="F49">
-        <v>74.79554841381716</v>
+        <v>238.6922352005494</v>
       </c>
       <c r="G49">
-        <v>90.97919281688952</v>
+        <v>290.5943247907568</v>
       </c>
       <c r="H49">
-        <v>6.872299280704527</v>
+        <v>21.9750597552963</v>
       </c>
       <c r="I49">
-        <v>497.7514645280177</v>
+        <v>1232.170346404708</v>
       </c>
     </row>
   </sheetData>
